--- a/model/data/refugee/xlsx/refugee.xlsx
+++ b/model/data/refugee/xlsx/refugee.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tdijk004/Documents/Tooling/tRBS/open source/trbs-refugee/trbs/model/data/refugee/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tdijk004/Documents/Tooling/tRBS/open source/trbs-refugee-2/trbs-add-refugee/model/data/refugee/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AA6B37-6044-DD4E-9F5B-56D3D9AB092F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E89EA71-60BF-0F4C-A7C6-D577FEDFF97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="2460" windowWidth="31660" windowHeight="15880" activeTab="5" xr2:uid="{4D223BC5-A265-7B41-9F5C-066E948A074C}"/>
   </bookViews>
@@ -603,7 +603,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -625,12 +625,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,7 +656,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -671,7 +665,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -2189,8 +2182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45498073-CC56-2D41-B5D6-3D03F1233978}">
   <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2513,11 +2506,10 @@
       <c r="A20" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5" t="s">
+      <c r="D20" t="s">
         <v>167</v>
       </c>
       <c r="E20">
@@ -2814,16 +2806,16 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
+      <c r="A41" t="s">
         <v>127</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" t="s">
         <v>168</v>
       </c>
     </row>
@@ -3094,16 +3086,16 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D61" s="5" t="s">
         <v>164</v>
       </c>
     </row>

--- a/model/data/refugee/xlsx/refugee.xlsx
+++ b/model/data/refugee/xlsx/refugee.xlsx
@@ -1,31 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tdijk004/Documents/Tooling/tRBS/open source/trbs-refugee-2/trbs-add-refugee/model/data/refugee/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mverdaasdo001/Documents/RBS_open_source_test/trbs/model/data/refugee/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E89EA71-60BF-0F4C-A7C6-D577FEDFF97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4382B35D-C9D8-CB4A-89F3-A2318DE21949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="2460" windowWidth="31660" windowHeight="15880" activeTab="5" xr2:uid="{4D223BC5-A265-7B41-9F5C-066E948A074C}"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="11480" windowHeight="20340" activeTab="1" xr2:uid="{4D223BC5-A265-7B41-9F5C-066E948A074C}"/>
   </bookViews>
   <sheets>
     <sheet name="configurations" sheetId="1" r:id="rId1"/>
-    <sheet name="key_outputs" sheetId="2" r:id="rId2"/>
-    <sheet name="decision_makers_options" sheetId="3" r:id="rId3"/>
-    <sheet name="scenarios" sheetId="4" r:id="rId4"/>
-    <sheet name="fixed_inputs" sheetId="5" r:id="rId5"/>
-    <sheet name="dependencies" sheetId="6" r:id="rId6"/>
-    <sheet name="theme_weights" sheetId="7" r:id="rId7"/>
-    <sheet name="key_output_weights" sheetId="8" r:id="rId8"/>
-    <sheet name="scenario_weights" sheetId="9" r:id="rId9"/>
+    <sheet name="case_text_elements" sheetId="10" r:id="rId2"/>
+    <sheet name="key_outputs" sheetId="2" r:id="rId3"/>
+    <sheet name="decision_makers_options" sheetId="3" r:id="rId4"/>
+    <sheet name="scenarios" sheetId="4" r:id="rId5"/>
+    <sheet name="fixed_inputs" sheetId="5" r:id="rId6"/>
+    <sheet name="dependencies" sheetId="6" r:id="rId7"/>
+    <sheet name="theme_weights" sheetId="7" r:id="rId8"/>
+    <sheet name="key_output_weights" sheetId="8" r:id="rId9"/>
+    <sheet name="scenario_weights" sheetId="9" r:id="rId10"/>
+    <sheet name="generic_text_elements" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">dependencies!$A$1:$H$98</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">fixed_inputs!$A$1:$B$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">dependencies!$A$1:$H$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">fixed_inputs!$A$1:$B$46</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="208">
   <si>
     <t>configuration</t>
   </si>
@@ -582,13 +584,103 @@
   </si>
   <si>
     <t>-*</t>
+  </si>
+  <si>
+    <t>Strategic Challenge</t>
+  </si>
+  <si>
+    <t>title_key_outputs</t>
+  </si>
+  <si>
+    <t>Key outputs</t>
+  </si>
+  <si>
+    <t>title_dmo</t>
+  </si>
+  <si>
+    <t>Decision makers options (DMOs)</t>
+  </si>
+  <si>
+    <t>title_scenarios</t>
+  </si>
+  <si>
+    <t>Scenarios</t>
+  </si>
+  <si>
+    <t>Dependency graph</t>
+  </si>
+  <si>
+    <t>intro_key_outputs</t>
+  </si>
+  <si>
+    <t>The outputs upon which the decision makers will base their decision. Key outputs are often referred to as KPIs. Key outputs are grouped into themes.</t>
+  </si>
+  <si>
+    <t>intro_dmo</t>
+  </si>
+  <si>
+    <t>Decision makers options are formulated by assigning a single value to all internal variable inputs. These inputs can be formulated and determined by the decision makers.</t>
+  </si>
+  <si>
+    <t>intro_scenarios</t>
+  </si>
+  <si>
+    <t>Each external variable input can be thought of as a single aspect of external uncertainty affecting the outcome of the decision in scope. A scenario is defined by assigning a single value to all external variable inputs.</t>
+  </si>
+  <si>
+    <t>title_front_page</t>
+  </si>
+  <si>
+    <t>title_strategic_challenge</t>
+  </si>
+  <si>
+    <t>title_dependency_graph</t>
+  </si>
+  <si>
+    <t>title_weighted_graph</t>
+  </si>
+  <si>
+    <t>title_fixed_inputs</t>
+  </si>
+  <si>
+    <t>Fixed inputs</t>
+  </si>
+  <si>
+    <t>intro_fixed_inputs</t>
+  </si>
+  <si>
+    <t>The inputs which only takes one value for all scenarios.</t>
+  </si>
+  <si>
+    <t>intro_dependency_graph</t>
+  </si>
+  <si>
+    <t>intro_weighted_graph</t>
+  </si>
+  <si>
+    <t>Resulting appreciations of different DMOs for scenario:</t>
+  </si>
+  <si>
+    <t>strategic_challenge</t>
+  </si>
+  <si>
+    <t>generic_text_element</t>
+  </si>
+  <si>
+    <t>case_text_element</t>
+  </si>
+  <si>
+    <t>Report of the performed Refugee case</t>
+  </si>
+  <si>
+    <t>How to balance scarce resources among refugees in their region</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -601,6 +693,21 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -656,7 +763,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -664,7 +771,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1022,7 +1130,214 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82690612-F6E7-CC4A-A524-5770D0407DD2}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF5F3D3F-4AC7-254F-B23E-EA45CF54BAE8}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99730A67-D6AA-424A-A0E7-AA648CF0F49F}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F27D205-AE79-E542-BA48-2D4707481E26}">
   <dimension ref="A1:I8"/>
   <sheetViews>
@@ -1252,7 +1567,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DA06C9-587A-0249-BA81-B2630B23EDC5}">
   <dimension ref="A1:C26"/>
   <sheetViews>
@@ -1560,7 +1875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9376F10E-70E0-5847-AA4E-1F18853CB3E7}">
   <dimension ref="A1:C19"/>
   <sheetViews>
@@ -1788,7 +2103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED761DDB-51CF-394F-9D46-C056F7FA6C46}">
   <dimension ref="A1:B46"/>
   <sheetViews>
@@ -2178,12 +2493,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45498073-CC56-2D41-B5D6-3D03F1233978}">
   <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3086,16 +3401,16 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="5" t="s">
+      <c r="A61" t="s">
         <v>160</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" t="s">
         <v>31</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" t="s">
         <v>53</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3659,7 +3974,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E05F8AE-8DA8-724A-AD7F-0A10B8E741F3}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -3698,7 +4013,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E33D2E0-445B-874F-A88A-006EF8EA7B4B}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -3778,51 +4093,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82690612-F6E7-CC4A-A524-5770D0407DD2}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/model/data/refugee/xlsx/refugee.xlsx
+++ b/model/data/refugee/xlsx/refugee.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mverdaasdo001/Documents/RBS_open_source_test/trbs/model/data/refugee/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4382B35D-C9D8-CB4A-89F3-A2318DE21949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA50EFE-1C9B-064D-8066-E4C8BDC69D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="540" windowWidth="11480" windowHeight="20340" activeTab="1" xr2:uid="{4D223BC5-A265-7B41-9F5C-066E948A074C}"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="11480" windowHeight="20340" firstSheet="10" activeTab="10" xr2:uid="{4D223BC5-A265-7B41-9F5C-066E948A074C}"/>
   </bookViews>
   <sheets>
     <sheet name="configurations" sheetId="1" r:id="rId1"/>
@@ -658,9 +658,6 @@
     <t>intro_weighted_graph</t>
   </si>
   <si>
-    <t>Resulting appreciations of different DMOs for scenario:</t>
-  </si>
-  <si>
     <t>strategic_challenge</t>
   </si>
   <si>
@@ -670,10 +667,13 @@
     <t>case_text_element</t>
   </si>
   <si>
-    <t>Report of the performed Refugee case</t>
-  </si>
-  <si>
     <t>How to balance scarce resources among refugees in their region</t>
+  </si>
+  <si>
+    <t>Report of the Refugee case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resulting appreciations of different DMOs for scenario: </t>
   </si>
 </sst>
 </file>
@@ -1181,15 +1181,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF5F3D3F-4AC7-254F-B23E-EA45CF54BAE8}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -1248,7 +1248,7 @@
         <v>195</v>
       </c>
       <c r="B8" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1302,15 +1302,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99730A67-D6AA-424A-A0E7-AA648CF0F49F}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -1326,10 +1326,10 @@
     </row>
     <row r="3" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
